--- a/asserts/coords_tracking/SOOTOPOLIS_CITY coordinates.xlsx
+++ b/asserts/coords_tracking/SOOTOPOLIS_CITY coordinates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SS\Documents\GitHub\pokemmo_py_auto\asserts\coords_tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF7D3C1-663E-494A-B0F2-62F42F9B938E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C08BB4E-195A-40B6-8F62-6EC1E93B5E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5670" yWindow="3405" windowWidth="19140" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="2">
   <si>
     <t>pc_in</t>
   </si>
@@ -393,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AQ25" sqref="AQ25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1773,13 +1773,13 @@
       <c r="G23" s="2">
         <v>1</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2" t="s">
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
@@ -1818,7 +1818,7 @@
       <c r="V23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="W23" s="2" t="s">
+      <c r="W23" s="2">
         <v>1</v>
       </c>
       <c r="X23" s="2">
@@ -1877,13 +1877,13 @@
       <c r="G24" s="2">
         <v>1</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J24" s="2" t="s">
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="s">
@@ -1922,7 +1922,7 @@
       <c r="V24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="W24" s="2" t="s">
+      <c r="W24" s="2">
         <v>1</v>
       </c>
       <c r="X24" s="2">
@@ -1981,13 +1981,13 @@
       <c r="G25" s="2">
         <v>1</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" s="2" t="s">
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
@@ -2026,7 +2026,7 @@
       <c r="V25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="W25" s="2" t="s">
+      <c r="W25" s="2">
         <v>1</v>
       </c>
       <c r="X25" s="2">
@@ -2085,13 +2085,13 @@
       <c r="G26" s="2">
         <v>1</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J26" s="2" t="s">
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
@@ -2130,7 +2130,7 @@
       <c r="V26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="W26" s="2" t="s">
+      <c r="W26" s="2">
         <v>1</v>
       </c>
       <c r="X26" s="2">
@@ -2183,13 +2183,13 @@
       <c r="G27" s="2">
         <v>1</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J27" s="2" t="s">
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
@@ -2228,7 +2228,7 @@
       <c r="V27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="W27" s="2" t="s">
+      <c r="W27" s="2">
         <v>1</v>
       </c>
       <c r="X27" s="2">
@@ -2266,16 +2266,16 @@
       <c r="B28" s="2">
         <v>2</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -2326,7 +2326,7 @@
       <c r="V28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="W28" s="2" t="s">
+      <c r="W28" s="2">
         <v>1</v>
       </c>
       <c r="X28" s="2">
@@ -2346,16 +2346,16 @@
       <c r="B29" s="2">
         <v>2</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -2426,16 +2426,16 @@
       <c r="B30" s="2">
         <v>2</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -2494,16 +2494,16 @@
       <c r="B31" s="2">
         <v>2</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
